--- a/biology/Zoologie/Cyrtauchenius_terricola/Cyrtauchenius_terricola.xlsx
+++ b/biology/Zoologie/Cyrtauchenius_terricola/Cyrtauchenius_terricola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtauchenius terricola est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtauchenius terricola est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Algérie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Algérie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucas, 1846 : Histoire naturelle des animaux articulés. Exploration scientifique de l'Algérie pendant les années 1840, 1841, 1842 publiée par ordre du Gouvernement et avec le concours d'une commission académique. Paris, Sciences physiques, Zoologie, vol. 1, p. 89-271.</t>
         </is>
